--- a/my-project/public/datafiles/CSVs/ward_coordinates.xlsx
+++ b/my-project/public/datafiles/CSVs/ward_coordinates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jered\Desktop\backend\SHUDH\shudh.ANVI\public\datafiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jered\Desktop\ShudhFinal\Shudh.anvirobotics-Latest\my-project\public\datafiles\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497C9C92-73B2-4DA6-8062-5DF6F52ED321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF7445-DEF2-4200-98F7-3A5E7E6337C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2436" yWindow="1140" windowWidth="17280" windowHeight="10176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" r:id="rId1"/>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" zoomScale="72" workbookViewId="0">
-      <selection activeCell="W74" sqref="W74"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>7.6583866476900003E-3</v>
       </c>
       <c r="J2">
         <v>266.95536341812868</v>
